--- a/Task/requirement.xlsx
+++ b/Task/requirement.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming_folder\m2m\m2m-clothing\Task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757C5A47-3D74-4226-A360-312838F4EDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8B09F4-44D0-49C9-B6B8-EC029D91EB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Req ID</t>
   </si>
@@ -66,9 +77,6 @@
     <t>PIC</t>
   </si>
   <si>
-    <t>Estimate</t>
-  </si>
-  <si>
     <t>Coding Effort(pd)</t>
   </si>
   <si>
@@ -99,9 +107,6 @@
     <t>Anh Khoa</t>
   </si>
   <si>
-    <t>4h</t>
-  </si>
-  <si>
     <t>Sign Up Form</t>
   </si>
   <si>
@@ -120,9 +125,6 @@
     <t>Load All Products</t>
   </si>
   <si>
-    <t>Load Product's data</t>
-  </si>
-  <si>
     <t>Admin UI, Login</t>
   </si>
   <si>
@@ -141,9 +143,6 @@
     <t>F005_TL</t>
   </si>
   <si>
-    <t>F006_HP</t>
-  </si>
-  <si>
     <t>F007_AK</t>
   </si>
   <si>
@@ -153,29 +152,23 @@
     <t>F003_TLE</t>
   </si>
   <si>
-    <t>5h</t>
-  </si>
-  <si>
-    <t>12h</t>
-  </si>
-  <si>
-    <t>3h</t>
-  </si>
-  <si>
-    <t>6h</t>
-  </si>
-  <si>
-    <t>8h</t>
-  </si>
-  <si>
     <t>Critical</t>
+  </si>
+  <si>
+    <t>F006_TL</t>
+  </si>
+  <si>
+    <t>Load Product's detail</t>
+  </si>
+  <si>
+    <t>Estimate(hour)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,29 +177,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Comfortaa"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Comfortaa"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFCC4125"/>
-      <name val="Comfortaa"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -259,28 +245,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,318 +561,319 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="50.08984375" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="50.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="6.08984375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.36328125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="5.36328125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.36328125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="4.90625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6328125" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="6.08984375" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.36328125" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="5.36328125" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.36328125" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="4.90625" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6328125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="50.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1"/>
-    <row r="2" spans="1:17" ht="16" thickBot="1">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:17" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="4">
+        <v>10</v>
+      </c>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6" t="s">
         <v>16</v>
       </c>
+      <c r="M4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="7">
+        <v>5</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1">
-      <c r="A3" s="3" t="s">
+    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="7">
+        <v>4</v>
+      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="7">
+        <v>12</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
+      <c r="B7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" s="7">
+        <v>3</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
     </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1">
-      <c r="A4" s="3" t="s">
+    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="7">
+        <v>4</v>
+      </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="7">
+        <v>8</v>
+      </c>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1">
-      <c r="A5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1">
-      <c r="A6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-    </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1">
-      <c r="A7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="1:17" ht="15" thickBot="1">
-      <c r="A8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1">
-      <c r="A9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1">
-      <c r="A10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
+      <c r="N10" s="7">
+        <v>6</v>
+      </c>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Task/requirement.xlsx
+++ b/Task/requirement.xlsx
@@ -1,26 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming_folder\m2m\m2m-clothing\Task\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757C5A47-3D74-4226-A360-312838F4EDD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22188" windowHeight="9024"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -78,109 +67,115 @@
     <t>Change Status Date</t>
   </si>
   <si>
+    <t>F001_AK</t>
+  </si>
+  <si>
+    <t>Create &amp; Insert Database</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Anh Khoa</t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t>F002_CP</t>
+  </si>
+  <si>
+    <t>Sign Up Form</t>
+  </si>
+  <si>
     <t>High</t>
   </si>
   <si>
+    <t>Châu Phát</t>
+  </si>
+  <si>
+    <t>5h</t>
+  </si>
+  <si>
+    <t>F003_TLE</t>
+  </si>
+  <si>
+    <t>Sign In Form</t>
+  </si>
+  <si>
+    <t>Trọng Lễ</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>F004_TT</t>
+  </si>
+  <si>
+    <t>Forget Password &amp; Change Password</t>
+  </si>
+  <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>Châu Phát</t>
+    <t>Thanh Tài</t>
+  </si>
+  <si>
+    <t>12h</t>
+  </si>
+  <si>
+    <t>F005_TL</t>
+  </si>
+  <si>
+    <t>Load All Products</t>
+  </si>
+  <si>
+    <t>Tấn Lộc</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>F006_HP</t>
+  </si>
+  <si>
+    <t>Load Product's data</t>
+  </si>
+  <si>
+    <t>F007_AK</t>
+  </si>
+  <si>
+    <t>Admin UI, Login</t>
   </si>
   <si>
     <t>Hồ Phát</t>
   </si>
   <si>
-    <t>Tấn Lộc</t>
-  </si>
-  <si>
-    <t>Create &amp; Insert Database</t>
-  </si>
-  <si>
-    <t>Anh Khoa</t>
-  </si>
-  <si>
-    <t>4h</t>
-  </si>
-  <si>
-    <t>Sign Up Form</t>
-  </si>
-  <si>
-    <t>Sign In Form</t>
-  </si>
-  <si>
-    <t>Trọng Lễ</t>
-  </si>
-  <si>
-    <t>Forget Password &amp; Change Password</t>
-  </si>
-  <si>
-    <t>Thanh Tài</t>
-  </si>
-  <si>
-    <t>Load All Products</t>
-  </si>
-  <si>
-    <t>Load Product's data</t>
-  </si>
-  <si>
-    <t>Admin UI, Login</t>
+    <t>F008_TLE</t>
   </si>
   <si>
     <t>Admin's Access, Function</t>
   </si>
   <si>
-    <t>F001_AK</t>
-  </si>
-  <si>
-    <t>F002_CP</t>
-  </si>
-  <si>
-    <t>F004_TT</t>
-  </si>
-  <si>
-    <t>F005_TL</t>
-  </si>
-  <si>
-    <t>F006_HP</t>
-  </si>
-  <si>
-    <t>F007_AK</t>
-  </si>
-  <si>
-    <t>F008_TLE</t>
-  </si>
-  <si>
-    <t>F003_TLE</t>
-  </si>
-  <si>
-    <t>5h</t>
-  </si>
-  <si>
-    <t>12h</t>
-  </si>
-  <si>
-    <t>3h</t>
-  </si>
-  <si>
     <t>6h</t>
-  </si>
-  <si>
-    <t>8h</t>
-  </si>
-  <si>
-    <t>Critical</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,31 +183,179 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Comfortaa"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCC4125"/>
       <name val="Comfortaa"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFCC4125"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Comfortaa"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -231,8 +374,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -255,45 +584,331 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -342,7 +957,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -377,7 +992,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -551,332 +1166,327 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="143" zoomScaleNormal="143" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="50.08984375" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="50.0925925925926" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="6.08984375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.36328125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="5.36328125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.36328125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="4.90625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6328125" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.4537037037037" customWidth="1"/>
+    <col min="2" max="2" width="35.1759259259259" customWidth="1"/>
+    <col min="3" max="3" width="13.0925925925926" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.8148148148148" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1759259259259" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="6.09259259259259" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.3611111111111" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.81481481481481" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="5.36111111111111" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.3611111111111" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="4.90740740740741" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.62962962962963" customWidth="1"/>
+    <col min="13" max="13" width="10.3611111111111" customWidth="1"/>
+    <col min="14" max="14" width="10" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.4537037037037" customWidth="1"/>
+    <col min="16" max="16" width="7.62962962962963" customWidth="1"/>
+    <col min="17" max="17" width="21.8148148148148" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1"/>
-    <row r="2" spans="1:17" ht="16" thickBot="1">
-      <c r="A2" s="1" t="s">
+    <row r="1" ht="15.15"/>
+    <row r="2" ht="16.35" spans="1:17">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1">
+    <row r="3" ht="15.15" spans="1:17">
       <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+    </row>
+    <row r="4" ht="15.15" spans="1:17">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" ht="15.15" spans="1:17">
+      <c r="A5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2" t="s">
+      <c r="N6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" ht="15.15" spans="1:17">
+      <c r="A8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" ht="15.15" spans="1:17">
+      <c r="A9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" ht="15.15" spans="1:17">
+      <c r="A10" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-    </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1">
-      <c r="A4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1">
-      <c r="A5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1">
-      <c r="A6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-    </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1">
-      <c r="A7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="1:17" ht="15" thickBot="1">
-      <c r="A8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1">
-      <c r="A9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1">
-      <c r="A10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Task/requirement.xlsx
+++ b/Task/requirement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming_folder\m2m\m2m-clothing\Task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8B09F4-44D0-49C9-B6B8-EC029D91EB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B8C441-0182-47D9-9B43-A754C5738B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -131,37 +131,37 @@
     <t>Admin's Access, Function</t>
   </si>
   <si>
-    <t>F001_AK</t>
-  </si>
-  <si>
-    <t>F002_CP</t>
-  </si>
-  <si>
-    <t>F004_TT</t>
-  </si>
-  <si>
-    <t>F005_TL</t>
-  </si>
-  <si>
-    <t>F007_AK</t>
-  </si>
-  <si>
-    <t>F008_TLE</t>
-  </si>
-  <si>
-    <t>F003_TLE</t>
-  </si>
-  <si>
     <t>Critical</t>
   </si>
   <si>
-    <t>F006_TL</t>
-  </si>
-  <si>
     <t>Load Product's detail</t>
   </si>
   <si>
     <t>Estimate(hour)</t>
+  </si>
+  <si>
+    <t>F001</t>
+  </si>
+  <si>
+    <t>F002</t>
+  </si>
+  <si>
+    <t>F003</t>
+  </si>
+  <si>
+    <t>F004</t>
+  </si>
+  <si>
+    <t>F005</t>
+  </si>
+  <si>
+    <t>F006</t>
+  </si>
+  <si>
+    <t>F007</t>
+  </si>
+  <si>
+    <t>F008</t>
   </si>
 </sst>
 </file>
@@ -245,19 +245,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -266,16 +265,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -561,316 +557,315 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.453125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" style="1" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="6.08984375" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.36328125" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="5.36328125" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.36328125" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="4.90625" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6328125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="50.08984375" style="1"/>
+    <col min="1" max="1" width="9.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="6.08984375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.36328125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="5.36328125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.36328125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="4.90625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6328125" customWidth="1"/>
+    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="1:17" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="O2" s="3" t="s">
+      <c r="N2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="P2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="4">
+      <c r="N3" s="3">
         <v>10</v>
       </c>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="7">
+      <c r="N4" s="6">
         <v>5</v>
       </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="6">
         <v>4</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6" t="s">
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="6">
         <v>12</v>
       </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="6">
         <v>3</v>
       </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6" t="s">
+      <c r="B8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="4" t="s">
+      <c r="M8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="6">
         <v>4</v>
       </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6" t="s">
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="4" t="s">
+      <c r="M9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="6">
         <v>8</v>
       </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="4" t="s">
+      <c r="M10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="6">
         <v>6</v>
       </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Task/requirement.xlsx
+++ b/Task/requirement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming_folder\m2m\m2m-clothing\Task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B8C441-0182-47D9-9B43-A754C5738B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A51139-7C09-40A4-B2F8-E1651D1D2CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="14940" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
   <si>
     <t>Req ID</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>F008</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>TO DO</t>
   </si>
 </sst>
 </file>
@@ -557,7 +563,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -576,7 +582,7 @@
     <col min="12" max="12" width="8.6328125" customWidth="1"/>
     <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.453125" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="7.6328125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21.81640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -661,7 +667,9 @@
         <v>10</v>
       </c>
       <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
+      <c r="P3" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -690,7 +698,9 @@
         <v>5</v>
       </c>
       <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
+      <c r="P4" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -719,7 +729,9 @@
         <v>4</v>
       </c>
       <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
+      <c r="P5" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -748,7 +760,9 @@
         <v>12</v>
       </c>
       <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
+      <c r="P6" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -777,7 +791,9 @@
         <v>3</v>
       </c>
       <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
+      <c r="P7" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -806,7 +822,9 @@
         <v>4</v>
       </c>
       <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
+      <c r="P8" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -835,7 +853,9 @@
         <v>8</v>
       </c>
       <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
+      <c r="P9" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -864,7 +884,9 @@
         <v>6</v>
       </c>
       <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
+      <c r="P10" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="Q10" s="5"/>
     </row>
   </sheetData>

--- a/Task/requirement.xlsx
+++ b/Task/requirement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming_folder\m2m\m2m-clothing\Task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A51139-7C09-40A4-B2F8-E1651D1D2CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB23C4D-1358-4F55-97F9-0F77DA58BD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="14940" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="16090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,9 +125,6 @@
     <t>Load All Products</t>
   </si>
   <si>
-    <t>Admin UI, Login</t>
-  </si>
-  <si>
     <t>Admin's Access, Function</t>
   </si>
   <si>
@@ -168,6 +165,9 @@
   </si>
   <si>
     <t>TO DO</t>
+  </si>
+  <si>
+    <t>Re-design UI</t>
   </si>
 </sst>
 </file>
@@ -563,7 +563,7 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -629,7 +629,7 @@
         <v>12</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>13</v>
@@ -643,7 +643,7 @@
     </row>
     <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>21</v>
@@ -658,7 +658,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>22</v>
@@ -668,13 +668,13 @@
       </c>
       <c r="O3" s="5"/>
       <c r="P3" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>23</v>
@@ -699,13 +699,13 @@
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>24</v>
@@ -730,13 +730,13 @@
       </c>
       <c r="O5" s="5"/>
       <c r="P5" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>26</v>
@@ -761,13 +761,13 @@
       </c>
       <c r="O6" s="5"/>
       <c r="P6" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>28</v>
@@ -792,16 +792,16 @@
       </c>
       <c r="O7" s="5"/>
       <c r="P7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -823,16 +823,16 @@
       </c>
       <c r="O8" s="5"/>
       <c r="P8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -854,16 +854,16 @@
       </c>
       <c r="O9" s="5"/>
       <c r="P9" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="5"/>
     </row>
     <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -885,12 +885,13 @@
       </c>
       <c r="O10" s="5"/>
       <c r="P10" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q10" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Task/requirement.xlsx
+++ b/Task/requirement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming_folder\m2m\m2m-clothing\Task\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\m2m\DuAnCuoi\m2m-clothing\Task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A51139-7C09-40A4-B2F8-E1651D1D2CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52C39EE-4CC9-47EF-BD1D-7A3844230F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="14940" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -563,32 +561,32 @@
   <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="50.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="50.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="6.08984375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.36328125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="5.36328125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.36328125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="4.90625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6328125" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.77734375" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="4.88671875" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.453125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.44140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="21.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:17" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:17" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -641,7 +639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>34</v>
       </c>
@@ -672,7 +670,7 @@
       </c>
       <c r="Q3" s="5"/>
     </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>35</v>
       </c>
@@ -703,7 +701,7 @@
       </c>
       <c r="Q4" s="5"/>
     </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>36</v>
       </c>
@@ -734,7 +732,7 @@
       </c>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>37</v>
       </c>
@@ -765,7 +763,7 @@
       </c>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>38</v>
       </c>
@@ -796,7 +794,7 @@
       </c>
       <c r="Q7" s="5"/>
     </row>
-    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>39</v>
       </c>
@@ -827,7 +825,7 @@
       </c>
       <c r="Q8" s="5"/>
     </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>40</v>
       </c>
@@ -858,7 +856,7 @@
       </c>
       <c r="Q9" s="5"/>
     </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>41</v>
       </c>

--- a/Task/requirement.xlsx
+++ b/Task/requirement.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming_folder\m2m\m2m-clothing\Task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB23C4D-1358-4F55-97F9-0F77DA58BD1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359B86C9-D00D-4993-AA6C-8BCA4F6A6FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="16090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t>Req ID</t>
   </si>
@@ -168,12 +169,60 @@
   </si>
   <si>
     <t>Re-design UI</t>
+  </si>
+  <si>
+    <t>code optimization</t>
+  </si>
+  <si>
+    <t>F000</t>
+  </si>
+  <si>
+    <t>TLE,TL,CP</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>Login with Facebook &amp; Google</t>
+  </si>
+  <si>
+    <t>Load &amp; Save User Info</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Cart UI</t>
+  </si>
+  <si>
+    <t>Home UI</t>
+  </si>
+  <si>
+    <t>Giỏ hàng, thông tin hóa đơn, thông tin thanh toán</t>
+  </si>
+  <si>
+    <t>Chuyển trang</t>
+  </si>
+  <si>
+    <t>CP, AK</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>HP, TLE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -224,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -233,17 +282,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -251,16 +326,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -268,17 +347,29 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -295,6 +386,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>124336</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>61522</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>788118</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>44405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5DEE7FB-2BC4-EF2F-8678-B637409DA02E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9285210" y="2459424"/>
+          <a:ext cx="4162943" cy="1807953"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -560,338 +700,452 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q10"/>
+  <dimension ref="A2:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="50.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="6.08984375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.36328125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="5.36328125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.36328125" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="4.90625" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="8.6328125" customWidth="1"/>
-    <col min="13" max="13" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.453125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.08984375" style="2" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="16.81640625" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.1796875" style="2" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="6.08984375" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.36328125" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.81640625" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="5.36328125" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.36328125" style="2" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="4.90625" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="24.90625" style="12" customWidth="1"/>
+    <col min="13" max="13" width="8.6328125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="10.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.453125" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="7.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.81640625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="6.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="50.08984375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:17" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:20" ht="31" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="9" t="s">
+      <c r="S2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="3">
+      <c r="O3" s="8">
         <v>10</v>
       </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="5"/>
-    </row>
-    <row r="4" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="9" t="s">
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="6">
+      <c r="O4" s="10">
         <v>5</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="5"/>
-    </row>
-    <row r="5" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="9" t="s">
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="9"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5" t="s">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="N5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="N5" s="6">
+      <c r="O5" s="10">
         <v>4</v>
       </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="5"/>
-    </row>
-    <row r="6" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="9" t="s">
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="9"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="N6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N6" s="6">
+      <c r="O6" s="10">
         <v>12</v>
       </c>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="5"/>
-    </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="9" t="s">
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="9"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="6">
+      <c r="O7" s="10">
         <v>3</v>
       </c>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5" t="s">
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="Q7" s="5"/>
-    </row>
-    <row r="8" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="9" t="s">
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="9"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5" t="s">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="N8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="6">
+      <c r="O8" s="10">
         <v>4</v>
       </c>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5" t="s">
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="Q8" s="5"/>
-    </row>
-    <row r="9" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="9" t="s">
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="9"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="N9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="6">
+      <c r="O9" s="10">
         <v>8</v>
       </c>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5" t="s">
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="Q9" s="5"/>
-    </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="9" t="s">
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="9"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="N10" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="6">
+      <c r="O10" s="10">
         <v>6</v>
       </c>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5" t="s">
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="Q10" s="5"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="9"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11" s="9"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="T12" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="29" x14ac:dyDescent="0.35">
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B15" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N16" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="T3:T11"/>
+    <mergeCell ref="N15:N16"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4D2BD80-5703-469D-BA96-960C6D9884E7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Task/requirement.xlsx
+++ b/Task/requirement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\programming_folder\m2m\m2m-clothing\Task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359B86C9-D00D-4993-AA6C-8BCA4F6A6FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BBF50E-F3A3-40C5-86E5-C9D4FCCDA4F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="66">
   <si>
     <t>Req ID</t>
   </si>
@@ -48,30 +48,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Business Form</t>
-  </si>
-  <si>
-    <t>Req Source</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>Size</t>
-  </si>
-  <si>
-    <t>Difficulty</t>
-  </si>
-  <si>
-    <t>Key</t>
-  </si>
-  <si>
     <t>Priority</t>
   </si>
   <si>
@@ -214,6 +190,51 @@
   </si>
   <si>
     <t>HP, TLE</t>
+  </si>
+  <si>
+    <t>Login with Google</t>
+  </si>
+  <si>
+    <t>Login with Facebook</t>
+  </si>
+  <si>
+    <t>Cart Handle</t>
+  </si>
+  <si>
+    <t>Change UI Template</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>Removed</t>
+  </si>
+  <si>
+    <t>Sub-page Design&amp;Implement</t>
+  </si>
+  <si>
+    <t>Hồ Phát, Trọng Lễ</t>
+  </si>
+  <si>
+    <t>Update database</t>
+  </si>
+  <si>
+    <t>slug_url, gg-token, hóa đơn, thanh toán**</t>
+  </si>
+  <si>
+    <t>Trang thông tin hóa đơn &amp; xử lý giao diện</t>
+  </si>
+  <si>
+    <t>Thông tin liên hệ,</t>
+  </si>
+  <si>
+    <t>Trang chủ Admin, Quản lý người dùng, quên mật khẩu, tách đăng kí; đăng nhập, sửa lại load thể loại, sửa lại nội dung các form mới giống form cũ</t>
+  </si>
+  <si>
+    <t>Insert &amp; Update User</t>
+  </si>
+  <si>
+    <t>1.0.1</t>
   </si>
 </sst>
 </file>
@@ -221,9 +242,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,19 +259,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Roboto"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="4">
@@ -326,50 +348,59 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -392,16 +423,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>124336</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>61522</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>213236</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>80572</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>788118</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>642069</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>44405</xdr:rowOff>
+      <xdr:rowOff>61368</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -424,8 +455,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9285210" y="2459424"/>
-          <a:ext cx="4162943" cy="1807953"/>
+          <a:off x="11408286" y="2696772"/>
+          <a:ext cx="4162633" cy="1822296"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -700,436 +731,449 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:T16"/>
+  <dimension ref="A2:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C34" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="50.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="17.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" style="2" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="16.81640625" style="2" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1796875" style="2" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="6.08984375" style="2" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.36328125" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.81640625" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="5.36328125" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="10.36328125" style="2" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="4.90625" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="24.90625" style="12" customWidth="1"/>
-    <col min="13" max="13" width="8.6328125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="10.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.453125" style="2" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="7.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.81640625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="6.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="50.08984375" style="2"/>
+    <col min="1" max="1" width="7.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6328125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="17.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:11" ht="46.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="9">
+        <v>10</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="E4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="11">
+        <v>5</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="11">
+        <v>4</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="E6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="11">
+        <v>12</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="11">
+        <v>3</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="11">
+        <v>4</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="F9" s="11">
+        <v>8</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="11">
+        <v>6</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B12" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="29" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B22" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="4" t="s">
+      <c r="I23" s="18"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="8">
-        <v>10</v>
-      </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="O4" s="10">
-        <v>5</v>
-      </c>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="9"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="10">
-        <v>4</v>
-      </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="9"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" s="10">
-        <v>12</v>
-      </c>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="9"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O7" s="10">
-        <v>3</v>
-      </c>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="9"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="10">
-        <v>4</v>
-      </c>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="9"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="11" t="s">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="10">
-        <v>8</v>
-      </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="9"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" s="10">
-        <v>6</v>
-      </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="9"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="T11" s="9"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B12" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="N12" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="T12" s="2">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B13" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="N13" s="13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="29" x14ac:dyDescent="0.35">
-      <c r="B14" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N14" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N15" s="14" t="s">
+      <c r="C26" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="N16" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="T3:T11"/>
-    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="K3:K11"/>
+    <mergeCell ref="E15:E16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
